--- a/Results_Saving/Small_Scale_Network/topo_P2P.xlsx
+++ b/Results_Saving/Small_Scale_Network/topo_P2P.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fymeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NRRG717\Desktop\Service_availability_evaluating_WMN\Results_Saving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8400F89-1036-40DA-B77B-D23F8755EE38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F833235-980E-4526-B115-53BD7A52F8CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>node_pair</t>
   </si>
@@ -34,31 +34,39 @@
     <t>fail_rate</t>
   </si>
   <si>
-    <t>(1, 3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(2, 3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(3, 4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3, 5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3, 6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4, 6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5, 6)</t>
+    <t>(8, 10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2, 4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2, 7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2, 6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2, 5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5, 7)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -66,11 +74,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(6, 8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(7, 8)</t>
+    <t>(8, 6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8, 7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7, 10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8, 9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7, 9)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +122,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -143,12 +171,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,18 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I12" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,10 +543,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>11.210297872070401</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>11.21029787</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -531,10 +557,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>14.359073697786201</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13.3590737</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -545,10 +571,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>16.569296316269298</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16.569296319999999</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -559,10 +585,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>15.1519631186071</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15.15196312</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -573,10 +599,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>20.324906028082101</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20.324906030000001</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -587,10 +613,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>13.8882490788127</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>13.88824908</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -601,10 +627,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>18.438422340947799</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>18.438422339999999</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -615,10 +641,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>17.951787590741102</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14.495058480000001</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -629,10 +655,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>14.495058478136301</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>20.994236919999999</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -643,15 +669,85 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>20.994236918520301</v>
+        <v>17.951787589999999</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>17.90937194</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20.080608399999999</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20.2695796</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>22.492114050000001</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>16.607673699999999</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>0.1</v>
       </c>
     </row>
